--- a/ResultsByUHF20200612/DailyProjections_citywide20200612.xlsx
+++ b/ResultsByUHF20200612/DailyProjections_citywide20200612.xlsx
@@ -352,7 +352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -458,57 +458,57 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>578 (333, 935)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>112 (72, 168)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>20 (9, 46)</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>11 (1, 29)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>0 (0, 0)</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>0 (0, 0)</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>1 (1, 6)</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>109 (68, 171)</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>87 (45, 136)</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>1 (0, 4)</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>0 (0, 2)</t>
         </is>
       </c>
     </row>
@@ -530,62 +530,62 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>06/21/20</t>
+          <t>06/15/20</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>550 (305, 948)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>99 (59, 151)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>16 (5, 40)</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>10 (0, 27)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>0 (0, 0)</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>0 (0, 0)</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>1 (1, 5)</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>108 (67, 167)</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>85 (44, 137)</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>1 (0, 4)</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>0 (0, 2)</t>
         </is>
       </c>
     </row>
@@ -607,62 +607,62 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>06/28/20</t>
+          <t>06/16/20</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>524 (283, 948)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>87 (53, 145)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>11 (0, 29)</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>8 (0, 20)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>0 (0, 0)</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>0 (0, 0)</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>1 (0, 5)</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>106 (63, 162)</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>84 (39, 135)</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>0 (0, 4)</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>0 (0, 2)</t>
         </is>
       </c>
     </row>
@@ -684,62 +684,62 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>07/05/20</t>
+          <t>06/17/20</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>503 (260, 953)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>77 (44, 139)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>10 (0, 25)</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>5 (0, 19)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>0 (0, 0)</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>0 (0, 0)</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>1 (0, 2)</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>106 (60, 157)</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>83 (34, 133)</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>0 (0, 3)</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>0 (0, 2)</t>
         </is>
       </c>
     </row>
@@ -761,62 +761,62 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>07/12/20</t>
+          <t>06/18/20</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>481 (243, 967)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>72 (41, 135)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>8 (0, 24)</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>1 (0, 14)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>0 (0, 0)</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>0 (0, 0)</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>0 (0, 1)</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>101 (59, 156)</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>81 (34, 128)</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>0 (0, 3)</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>0 (0, 2)</t>
         </is>
       </c>
     </row>
@@ -838,62 +838,62 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>07/19/20</t>
+          <t>06/19/20</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>460 (218, 970)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>67 (38, 132)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>4 (0, 21)</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>0 (0, 13)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>0 (0, 0)</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>0 (0, 0)</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>0 (0, 1)</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>99 (57, 149)</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>79 (31, 126)</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>0 (0, 3)</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>0 (0, 2)</t>
         </is>
       </c>
     </row>
@@ -915,62 +915,62 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>07/26/20</t>
+          <t>06/20/20</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>449 (185, 991)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>61 (38, 127)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>1 (0, 20)</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>0 (0, 12)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>0 (0, 0)</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>0 (0, 0)</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>0 (0, 1)</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>97 (57, 142)</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>78 (31, 123)</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>0 (0, 2)</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>0 (0, 1)</t>
         </is>
       </c>
     </row>
@@ -992,69 +992,69 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>08/02/20</t>
+          <t>06/21/20</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>440 (168, 1009)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>58 (34, 125)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>1 (0, 19)</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>0 (0, 11)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>0 (0, 0)</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>0 (0, 0)</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>0 (0, 1)</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>97 (58, 139)</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>77 (30, 121)</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>0 (0, 2)</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>0 (0, 1)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>No seasonality</t>
+          <t>Seasonality assumed</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1069,69 +1069,69 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>06/14/20</t>
+          <t>06/22/20</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>439 (162, 1046)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>57 (30, 125)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>0 (0, 18)</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>0 (0, 11)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>0 (0, 0)</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>0 (0, 0)</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>0 (0, 0)</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>95 (55, 136)</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>76 (28, 116)</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>0 (0, 2)</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>0 (0, 0)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>No seasonality</t>
+          <t>Seasonality assumed</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1146,69 +1146,69 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>06/21/20</t>
+          <t>06/23/20</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>430 (152, 1084)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>56 (29, 130)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>0 (0, 16)</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>0 (0, 11)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>0 (0, 0)</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>0 (0, 0)</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>0 (0, 0)</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>91 (52, 135)</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>75 (27, 115)</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>0 (0, 2)</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>0 (0, 0)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>No seasonality</t>
+          <t>Seasonality assumed</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1223,69 +1223,69 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>06/28/20</t>
+          <t>06/24/20</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>424 (141, 1123)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>55 (26, 136)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>0 (0, 15)</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>0 (0, 11)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>0 (0, 0)</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>0 (0, 0)</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>0 (0, 0)</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>88 (47, 129)</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>69 (23, 112)</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>0 (0, 2)</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>0 (0, 0)</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>No seasonality</t>
+          <t>Seasonality assumed</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1300,69 +1300,69 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>07/05/20</t>
+          <t>06/25/20</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>423 (129, 1156)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>52 (22, 139)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>0 (0, 14)</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>0 (0, 11)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>0 (0, 0)</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>0 (0, 0)</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>0 (0, 0)</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>87 (44, 125)</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>63 (21, 107)</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>0 (0, 0)</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>0 (0, 0)</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>No seasonality</t>
+          <t>Seasonality assumed</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1377,69 +1377,69 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>07/12/20</t>
+          <t>06/26/20</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>429 (120, 1207)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>53 (19, 142)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>0 (0, 14)</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>0 (0, 11)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>0 (0, 0)</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>0 (0, 0)</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>0 (0, 0)</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>84 (39, 120)</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>60 (22, 101)</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>0 (0, 0)</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>0 (0, 0)</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>No seasonality</t>
+          <t>Seasonality assumed</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1454,62 +1454,62 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>07/19/20</t>
+          <t>06/27/20</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>424 (113, 1238)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>55 (16, 144)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>0 (0, 14)</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>0 (0, 10)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>0 (0, 0)</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>0 (0, 0)</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>0 (0, 0)</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>80 (36, 119)</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>52 (19, 99)</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>0 (0, 0)</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>0 (0, 0)</t>
         </is>
       </c>
     </row>
@@ -1531,62 +1531,62 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>07/26/20</t>
+          <t>06/14/20</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>828 (521, 1318)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>122 (73, 171)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>37 (20, 71)</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>23 (12, 57)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>0 (0, 0)</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>0 (0, 0)</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>4 (1, 7)</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>126 (82, 203)</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>103 (56, 166)</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>2 (0, 14)</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>1 (0, 9)</t>
         </is>
       </c>
     </row>
@@ -1608,62 +1608,986 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>08/02/20</t>
+          <t>06/15/20</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>792 (492, 1318)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>109 (69, 166)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>33 (16, 66)</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>19 (12, 52)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>0 (0, 0)</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>0 (0, 0)</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>1 (0, 7)</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>125 (80, 195)</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>104 (54, 165)</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>2 (0, 12)</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>1 (0, 7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>No seasonality</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>As Is</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>06/16/20</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>758 (443, 1331)</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>101 (58, 160)</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>27 (12, 64)</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>18 (9, 47)</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>0 (0, 0)</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>0 (0, 0)</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>1 (0, 7)</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>122 (78, 191)</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>100 (51, 159)</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>1 (0, 12)</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>1 (0, 7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>No seasonality</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>As Is</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>06/17/20</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>729 (410, 1347)</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>95 (57, 153)</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>21 (12, 57)</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>17 (4, 45)</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>0 (0, 0)</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>0 (0, 0)</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>1 (0, 5)</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>119 (77, 188)</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>99 (49, 154)</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>1 (0, 10)</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>1 (0, 6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>No seasonality</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>As Is</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>06/18/20</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>686 (367, 1356)</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>92 (53, 152)</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>20 (10, 53)</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>17 (4, 39)</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>0 (0, 0)</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>0 (0, 0)</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>1 (0, 4)</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>119 (73, 185)</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>97 (45, 149)</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>1 (0, 9)</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>1 (0, 5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>No seasonality</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>As Is</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>06/19/20</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>655 (331, 1367)</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>88 (50, 150)</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>19 (7, 49)</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>15 (4, 33)</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>0 (0, 0)</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>0 (0, 0)</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>0 (0, 4)</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>114 (71, 178)</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>92 (42, 147)</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>1 (0, 9)</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>1 (0, 5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>No seasonality</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>As Is</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>06/20/20</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>637 (294, 1381)</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>83 (48, 143)</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>18 (4, 47)</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>13 (1, 33)</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>0 (0, 0)</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>0 (0, 0)</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>0 (0, 2)</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>113 (68, 174)</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>92 (37, 147)</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>1 (0, 7)</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>0 (0, 4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>No seasonality</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>As Is</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>06/21/20</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>620 (261, 1420)</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>78 (45, 143)</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>17 (4, 44)</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>12 (1, 33)</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>0 (0, 0)</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>0 (0, 0)</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>0 (0, 2)</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>112 (67, 169)</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>89 (37, 141)</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>1 (0, 6)</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>0 (0, 4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>No seasonality</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>As Is</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>06/22/20</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>610 (241, 1474)</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>75 (42, 143)</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>15 (2, 41)</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>10 (0, 33)</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>0 (0, 0)</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>0 (0, 0)</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>0 (0, 2)</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>109 (65, 164)</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>85 (34, 138)</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>1 (0, 5)</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>0 (0, 4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>No seasonality</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>As Is</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>06/23/20</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>604 (221, 1528)</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>75 (38, 148)</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>13 (1, 41)</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>10 (0, 32)</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>0 (0, 0)</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>0 (0, 0)</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>0 (0, 1)</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>106 (65, 158)</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>83 (35, 137)</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>0 (0, 4)</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>0 (0, 3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>No seasonality</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>As Is</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>06/24/20</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>597 (213, 1578)</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>73 (35, 150)</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>12 (0, 40)</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>10 (0, 32)</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>0 (0, 0)</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>0 (0, 0)</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>0 (0, 1)</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>102 (61, 152)</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>79 (36, 136)</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>0 (0, 4)</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>0 (0, 1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>No seasonality</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>As Is</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>06/25/20</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>589 (194, 1639)</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>72 (31, 159)</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>11 (0, 40)</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>6 (0, 31)</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>0 (0, 0)</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>0 (0, 0)</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>0 (0, 1)</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>98 (60, 151)</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>77 (36, 133)</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>0 (0, 4)</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>0 (0, 1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>No seasonality</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>As Is</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>06/26/20</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>581 (178, 1691)</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>72 (28, 163)</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>11 (0, 41)</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>3 (0, 32)</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>0 (0, 0)</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>0 (0, 0)</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>0 (0, 1)</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>95 (56, 143)</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>75 (30, 133)</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>0 (0, 4)</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>0 (0, 1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>No seasonality</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>As Is</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>06/27/20</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>576 (165, 1745)</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>72 (23, 167)</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>8 (0, 41)</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>3 (0, 31)</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>0 (0, 0)</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>0 (0, 0)</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>0 (0, 0)</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>92 (54, 144)</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>70 (27, 129)</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>0 (0, 2)</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>0 (0, 0)</t>
         </is>
       </c>
     </row>
@@ -1674,7 +2598,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1765,42 +2689,42 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>2165 (1450, 3147)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>1795 (1101, 2750)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>332 (220, 511)</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>270 (182, 394)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>2165 (1450, 3147)</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>1795 (1101, 2750)</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>332 (220, 511)</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>270 (182, 394)</t>
         </is>
       </c>
     </row>
@@ -1822,47 +2746,47 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>06/21/20</t>
+          <t>06/15/20</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>2072 (1384, 3039)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>1718 (1051, 2655)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>326 (210, 499)</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>262 (174, 378)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>2072 (1384, 3039)</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>1718 (1051, 2655)</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>326 (210, 499)</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>262 (174, 378)</t>
         </is>
       </c>
     </row>
@@ -1884,47 +2808,47 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>06/28/20</t>
+          <t>06/16/20</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>1986 (1318, 2931)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>1642 (990, 2556)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>319 (199, 482)</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>255 (167, 359)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>1986 (1318, 2931)</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>1642 (990, 2556)</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>319 (199, 482)</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>255 (167, 359)</t>
         </is>
       </c>
     </row>
@@ -1946,47 +2870,47 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>07/05/20</t>
+          <t>06/17/20</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>1898 (1254, 2822)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>1561 (936, 2467)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>301 (190, 463)</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>246 (161, 346)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>1898 (1254, 2822)</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>1561 (936, 2467)</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>301 (190, 463)</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>246 (161, 346)</t>
         </is>
       </c>
     </row>
@@ -2008,47 +2932,47 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>07/12/20</t>
+          <t>06/18/20</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>1810 (1185, 2709)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>1488 (882, 2366)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>282 (182, 445)</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>233 (150, 335)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>1810 (1185, 2709)</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>1488 (882, 2366)</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>282 (182, 445)</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>233 (150, 335)</t>
         </is>
       </c>
     </row>
@@ -2070,47 +2994,47 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>07/19/20</t>
+          <t>06/19/20</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>1722 (1125, 2609)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>1412 (827, 2279)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>274 (175, 431)</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>219 (144, 321)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>1722 (1125, 2609)</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>1412 (827, 2279)</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>274 (175, 431)</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>219 (144, 321)</t>
         </is>
       </c>
     </row>
@@ -2132,47 +3056,47 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>07/26/20</t>
+          <t>06/20/20</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>1631 (1059, 2505)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>1346 (778, 2188)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>261 (166, 416)</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>211 (132, 304)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>1631 (1059, 2505)</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>1346 (778, 2188)</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>261 (166, 416)</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>211 (132, 304)</t>
         </is>
       </c>
     </row>
@@ -2194,54 +3118,54 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>08/02/20</t>
+          <t>06/21/20</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>1547 (992, 2398)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>1272 (723, 2091)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>257 (155, 403)</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>200 (125, 284)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>1547 (992, 2398)</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>1272 (723, 2091)</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>257 (155, 403)</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>200 (125, 284)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>No seasonality</t>
+          <t>Seasonality assumed</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2256,54 +3180,54 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>06/14/20</t>
+          <t>06/22/20</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>1462 (930, 2297)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>1206 (683, 2004)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>244 (145, 385)</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>190 (113, 275)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>1462 (930, 2297)</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>1206 (683, 2004)</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>244 (145, 385)</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>190 (113, 275)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>No seasonality</t>
+          <t>Seasonality assumed</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2318,54 +3242,54 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>06/21/20</t>
+          <t>06/23/20</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>1384 (855, 2203)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>1138 (623, 1924)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>227 (134, 361)</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>180 (104, 266)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>1384 (855, 2203)</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>1138 (623, 1924)</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>227 (134, 361)</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>180 (104, 266)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>No seasonality</t>
+          <t>Seasonality assumed</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2380,54 +3304,54 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>06/28/20</t>
+          <t>06/24/20</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>1297 (804, 2107)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>1069 (575, 1840)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>214 (126, 348)</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>165 (91, 257)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>1297 (804, 2107)</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>1069 (575, 1840)</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>214 (126, 348)</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>165 (91, 257)</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>No seasonality</t>
+          <t>Seasonality assumed</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2442,54 +3366,54 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>07/05/20</t>
+          <t>06/25/20</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>1233 (744, 2008)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>1006 (528, 1759)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>205 (115, 327)</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>151 (80, 237)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>1233 (744, 2008)</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>1006 (528, 1759)</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>205 (115, 327)</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>151 (80, 237)</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>No seasonality</t>
+          <t>Seasonality assumed</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2504,54 +3428,54 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>07/12/20</t>
+          <t>06/26/20</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>1153 (684, 1927)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>941 (490, 1684)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>192 (103, 312)</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>140 (70, 223)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>1153 (684, 1927)</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>941 (490, 1684)</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>192 (103, 312)</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>140 (70, 223)</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>No seasonality</t>
+          <t>Seasonality assumed</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2566,47 +3490,47 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>07/19/20</t>
+          <t>06/27/20</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>1076 (620, 1841)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>873 (441, 1609)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>184 (93, 292)</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>127 (67, 214)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>1076 (620, 1841)</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>873 (441, 1609)</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>184 (93, 292)</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>127 (67, 214)</t>
         </is>
       </c>
     </row>
@@ -2628,47 +3552,47 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>07/26/20</t>
+          <t>06/14/20</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>2578 (1724, 3778)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>2141 (1321, 3300)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>398 (259, 615)</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>314 (215, 470)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>2578 (1724, 3778)</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>2141 (1321, 3300)</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>398 (259, 615)</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>314 (215, 470)</t>
         </is>
       </c>
     </row>
@@ -2690,47 +3614,791 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>08/02/20</t>
+          <t>06/15/20</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>2484 (1659, 3661)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>2063 (1263, 3209)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>386 (246, 594)</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>308 (208, 455)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>2484 (1659, 3661)</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>2063 (1263, 3209)</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>386 (246, 594)</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>7 (7, 7)</t>
+          <t>308 (208, 455)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>No seasonality</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>As Is</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>06/16/20</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2396 (1596, 3559)</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1984 (1206, 3111)</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>371 (234, 571)</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>301 (193, 434)</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>2396 (1596, 3559)</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>1984 (1206, 3111)</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>371 (234, 571)</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>301 (193, 434)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>No seasonality</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>As Is</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>06/17/20</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2303 (1522, 3444)</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1907 (1152, 3016)</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>353 (226, 550)</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>286 (183, 418)</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>2303 (1522, 3444)</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>1907 (1152, 3016)</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>353 (226, 550)</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>286 (183, 418)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>No seasonality</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>As Is</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>06/18/20</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2211 (1449, 3338)</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1835 (1101, 2918)</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>338 (212, 534)</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>273 (175, 405)</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>2211 (1449, 3338)</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>1835 (1101, 2918)</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>338 (212, 534)</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>273 (175, 405)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>No seasonality</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>As Is</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>06/19/20</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2124 (1378, 3229)</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1758 (1045, 2819)</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>324 (201, 517)</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>265 (167, 382)</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>2124 (1378, 3229)</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>1758 (1045, 2819)</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>324 (201, 517)</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>265 (167, 382)</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>No seasonality</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>As Is</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>06/20/20</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2025 (1321, 3122)</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1681 (990, 2729)</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>314 (193, 495)</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>255 (159, 369)</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>2025 (1321, 3122)</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>1681 (990, 2729)</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>314 (193, 495)</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>255 (159, 369)</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>No seasonality</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>As Is</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>06/21/20</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>1940 (1256, 3013)</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1608 (941, 2636)</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>298 (180, 474)</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>240 (150, 351)</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>1940 (1256, 3013)</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>1608 (941, 2636)</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>298 (180, 474)</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>240 (150, 351)</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>No seasonality</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>As Is</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>06/22/20</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>1857 (1181, 2904)</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1538 (883, 2550)</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>283 (172, 455)</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>227 (138, 337)</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>1857 (1181, 2904)</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>1538 (883, 2550)</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>283 (172, 455)</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>227 (138, 337)</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>No seasonality</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>As Is</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>06/23/20</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>1774 (1123, 2812)</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1472 (837, 2461)</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>278 (164, 440)</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>213 (127, 322)</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>1774 (1123, 2812)</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>1472 (837, 2461)</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>278 (164, 440)</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>213 (127, 322)</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>No seasonality</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>As Is</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>06/24/20</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>1693 (1049, 2712)</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1406 (781, 2381)</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>266 (156, 425)</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>200 (116, 304)</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>1693 (1049, 2712)</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>1406 (781, 2381)</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>266 (156, 425)</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>200 (116, 304)</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>No seasonality</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>As Is</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>06/25/20</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>1605 (983, 2619)</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1321 (733, 2303)</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>254 (146, 405)</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>189 (110, 297)</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>1605 (983, 2619)</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>1321 (733, 2303)</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>254 (146, 405)</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>189 (110, 297)</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>No seasonality</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>As Is</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>06/26/20</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>1520 (921, 2531)</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1260 (682, 2227)</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>233 (131, 386)</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>177 (104, 285)</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>1520 (921, 2531)</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>1260 (682, 2227)</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>233 (131, 386)</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>177 (104, 285)</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>No seasonality</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>As Is</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>06/27/20</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>1441 (855, 2445)</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1199 (633, 2147)</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>221 (116, 374)</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>171 (91, 276)</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>1441 (855, 2445)</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>1199 (633, 2147)</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>221 (116, 374)</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>171 (91, 276)</t>
         </is>
       </c>
     </row>
